--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cck-Cckbr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cck-Cckbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Cck</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6061876666666667</v>
+        <v>0.857847</v>
       </c>
       <c r="H2">
-        <v>1.818563</v>
+        <v>2.573541</v>
       </c>
       <c r="I2">
-        <v>0.1451961577245912</v>
+        <v>0.1498657082557423</v>
       </c>
       <c r="J2">
-        <v>0.1451961577245912</v>
+        <v>0.1498657082557423</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,39 +555,39 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.08494466666666667</v>
+        <v>0.1771103333333333</v>
       </c>
       <c r="N2">
-        <v>0.254834</v>
+        <v>0.531331</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.6758517613986885</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.6758517613986885</v>
       </c>
       <c r="Q2">
-        <v>0.05149240928244445</v>
+        <v>0.151933568119</v>
       </c>
       <c r="R2">
-        <v>0.463431683542</v>
+        <v>1.367402113071</v>
       </c>
       <c r="S2">
-        <v>0.1451961577245912</v>
+        <v>0.1012870028979054</v>
       </c>
       <c r="T2">
-        <v>0.1451961577245912</v>
+        <v>0.1012870028979054</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.378641333333333</v>
+        <v>0.857847</v>
       </c>
       <c r="H3">
-        <v>7.135923999999999</v>
+        <v>2.573541</v>
       </c>
       <c r="I3">
-        <v>0.5697403645706501</v>
+        <v>0.1498657082557423</v>
       </c>
       <c r="J3">
-        <v>0.5697403645706501</v>
+        <v>0.1498657082557423</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,36 +623,36 @@
         <v>0.254834</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.3241482386013114</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.3241482386013114</v>
       </c>
       <c r="Q3">
-        <v>0.2020528951795555</v>
+        <v>0.07286952746600001</v>
       </c>
       <c r="R3">
-        <v>1.818476056616</v>
+        <v>0.655825747194</v>
       </c>
       <c r="S3">
-        <v>0.5697403645706501</v>
+        <v>0.04857870535783688</v>
       </c>
       <c r="T3">
-        <v>0.5697403645706501</v>
+        <v>0.04857870535783689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.190127666666667</v>
+        <v>2.378641333333333</v>
       </c>
       <c r="H4">
-        <v>3.570383</v>
+        <v>7.135924</v>
       </c>
       <c r="I4">
-        <v>0.2850634777047586</v>
+        <v>0.4155481899527343</v>
       </c>
       <c r="J4">
-        <v>0.2850634777047586</v>
+        <v>0.4155481899527343</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +679,338 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
+        <v>0.1771103333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.531331</v>
+      </c>
+      <c r="O4">
+        <v>0.6758517613986885</v>
+      </c>
+      <c r="P4">
+        <v>0.6758517613986885</v>
+      </c>
+      <c r="Q4">
+        <v>0.4212819594271112</v>
+      </c>
+      <c r="R4">
+        <v>3.791537634844</v>
+      </c>
+      <c r="S4">
+        <v>0.2808489761255923</v>
+      </c>
+      <c r="T4">
+        <v>0.2808489761255923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.378641333333333</v>
+      </c>
+      <c r="H5">
+        <v>7.135924</v>
+      </c>
+      <c r="I5">
+        <v>0.4155481899527343</v>
+      </c>
+      <c r="J5">
+        <v>0.4155481899527343</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
         <v>0.08494466666666667</v>
       </c>
-      <c r="N4">
+      <c r="N5">
         <v>0.254834</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.1010949979357778</v>
-      </c>
-      <c r="R4">
-        <v>0.9098549814220001</v>
-      </c>
-      <c r="S4">
-        <v>0.2850634777047586</v>
-      </c>
-      <c r="T4">
-        <v>0.2850634777047586</v>
+      <c r="O5">
+        <v>0.3241482386013114</v>
+      </c>
+      <c r="P5">
+        <v>0.3241482386013114</v>
+      </c>
+      <c r="Q5">
+        <v>0.2020528951795556</v>
+      </c>
+      <c r="R5">
+        <v>1.818476056616</v>
+      </c>
+      <c r="S5">
+        <v>0.134699213827142</v>
+      </c>
+      <c r="T5">
+        <v>0.134699213827142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.389512333333334</v>
+      </c>
+      <c r="H6">
+        <v>7.168537000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.4174473515916376</v>
+      </c>
+      <c r="J6">
+        <v>0.4174473515916375</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.1771103333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.531331</v>
+      </c>
+      <c r="O6">
+        <v>0.6758517613986885</v>
+      </c>
+      <c r="P6">
+        <v>0.6758517613986885</v>
+      </c>
+      <c r="Q6">
+        <v>0.4232073258607779</v>
+      </c>
+      <c r="R6">
+        <v>3.808865932747</v>
+      </c>
+      <c r="S6">
+        <v>0.2821325278644259</v>
+      </c>
+      <c r="T6">
+        <v>0.2821325278644258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.389512333333334</v>
+      </c>
+      <c r="H7">
+        <v>7.168537000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.4174473515916376</v>
+      </c>
+      <c r="J7">
+        <v>0.4174473515916375</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.08494466666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.254834</v>
+      </c>
+      <c r="O7">
+        <v>0.3241482386013114</v>
+      </c>
+      <c r="P7">
+        <v>0.3241482386013114</v>
+      </c>
+      <c r="Q7">
+        <v>0.2029763286508889</v>
+      </c>
+      <c r="R7">
+        <v>1.826786957858</v>
+      </c>
+      <c r="S7">
+        <v>0.1353148237272117</v>
+      </c>
+      <c r="T7">
+        <v>0.1353148237272117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.09810400000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.294312</v>
+      </c>
+      <c r="I8">
+        <v>0.0171387501998857</v>
+      </c>
+      <c r="J8">
+        <v>0.0171387501998857</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1771103333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.531331</v>
+      </c>
+      <c r="O8">
+        <v>0.6758517613986885</v>
+      </c>
+      <c r="P8">
+        <v>0.6758517613986885</v>
+      </c>
+      <c r="Q8">
+        <v>0.01737523214133333</v>
+      </c>
+      <c r="R8">
+        <v>0.156377089272</v>
+      </c>
+      <c r="S8">
+        <v>0.01158325451076487</v>
+      </c>
+      <c r="T8">
+        <v>0.01158325451076487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.09810400000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.294312</v>
+      </c>
+      <c r="I9">
+        <v>0.0171387501998857</v>
+      </c>
+      <c r="J9">
+        <v>0.0171387501998857</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.08494466666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.254834</v>
+      </c>
+      <c r="O9">
+        <v>0.3241482386013114</v>
+      </c>
+      <c r="P9">
+        <v>0.3241482386013114</v>
+      </c>
+      <c r="Q9">
+        <v>0.008333411578666667</v>
+      </c>
+      <c r="R9">
+        <v>0.07500070420800001</v>
+      </c>
+      <c r="S9">
+        <v>0.005555495689120823</v>
+      </c>
+      <c r="T9">
+        <v>0.005555495689120823</v>
       </c>
     </row>
   </sheetData>
